--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -374,270 +374,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>2022</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="1">
         <v>2023</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>145705.76</v>
-      </c>
       <c r="C2">
-        <v>154605.93</v>
+        <v>70181.03999999999</v>
       </c>
       <c r="D2">
-        <v>180059.22</v>
+        <v>273853.03</v>
       </c>
       <c r="E2">
-        <v>416200.77</v>
+        <v>505264.48</v>
       </c>
       <c r="F2">
-        <v>367963.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>444724.53</v>
+      </c>
+      <c r="G2">
+        <v>528679.0699999999</v>
+      </c>
+      <c r="H2">
+        <v>454942.61</v>
+      </c>
+      <c r="I2">
+        <v>1077628.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>109215.4</v>
-      </c>
       <c r="C3">
-        <v>147856.2</v>
+        <v>55926.21</v>
       </c>
       <c r="D3">
-        <v>169996.77</v>
+        <v>224777.98</v>
       </c>
       <c r="E3">
-        <v>370128.1</v>
+        <v>308589.64</v>
       </c>
       <c r="F3">
-        <v>316153.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>423121.33</v>
+      </c>
+      <c r="G3">
+        <v>557000.89</v>
+      </c>
+      <c r="H3">
+        <v>486371.27</v>
+      </c>
+      <c r="I3">
+        <v>941184.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>136168.78</v>
-      </c>
       <c r="C4">
-        <v>187559.52</v>
+        <v>58748</v>
       </c>
       <c r="D4">
-        <v>198877.75</v>
+        <v>230762.37</v>
       </c>
       <c r="E4">
-        <v>419407.07</v>
+        <v>471550.93</v>
       </c>
       <c r="F4">
-        <v>393888.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>461440.4</v>
+      </c>
+      <c r="G4">
+        <v>661369.1800000001</v>
+      </c>
+      <c r="H4">
+        <v>570778.23</v>
+      </c>
+      <c r="I4">
+        <v>796983.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>177723.7</v>
-      </c>
       <c r="C5">
-        <v>166347.78</v>
+        <v>69525</v>
       </c>
       <c r="D5">
-        <v>180261.38</v>
+        <v>231723.38</v>
       </c>
       <c r="E5">
-        <v>334998.14</v>
+        <v>414500.83</v>
       </c>
       <c r="F5">
-        <v>452377.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>528483.5699999999</v>
+      </c>
+      <c r="G5">
+        <v>592203.52</v>
+      </c>
+      <c r="H5">
+        <v>553985.89</v>
+      </c>
+      <c r="I5">
+        <v>449688.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>226610.89</v>
-      </c>
       <c r="C6">
-        <v>196132.36</v>
+        <v>58295.7</v>
       </c>
       <c r="D6">
-        <v>162363.87</v>
+        <v>298073.29</v>
       </c>
       <c r="E6">
-        <v>368292.65</v>
+        <v>457351.79</v>
       </c>
       <c r="F6">
-        <v>513090.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>597756.95</v>
+      </c>
+      <c r="G6">
+        <v>684242.49</v>
+      </c>
+      <c r="H6">
+        <v>855536.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>207781.55</v>
-      </c>
       <c r="C7">
-        <v>213898.25</v>
+        <v>75018.60000000001</v>
       </c>
       <c r="D7">
-        <v>175025.72</v>
+        <v>283819.25</v>
       </c>
       <c r="E7">
-        <v>341248.36</v>
+        <v>504810.11</v>
       </c>
       <c r="F7">
-        <v>511447.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>520962.54</v>
+      </c>
+      <c r="G7">
+        <v>497416.03</v>
+      </c>
+      <c r="H7">
+        <v>625142.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>190157</v>
+        <v>75489.75</v>
       </c>
       <c r="C8">
-        <v>276265.54</v>
+        <v>102664.2</v>
       </c>
       <c r="D8">
-        <v>172498.22</v>
+        <v>291646.71</v>
       </c>
       <c r="E8">
-        <v>390451.05</v>
+        <v>814721.26</v>
       </c>
       <c r="F8">
-        <v>661051.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>607227.3199999999</v>
+      </c>
+      <c r="G8">
+        <v>614574.4399999999</v>
+      </c>
+      <c r="H8">
+        <v>950349.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>187995.37</v>
+        <v>180862</v>
       </c>
       <c r="C9">
-        <v>282243.28</v>
+        <v>195298.1</v>
       </c>
       <c r="D9">
-        <v>226564.14</v>
+        <v>322356.9</v>
       </c>
       <c r="E9">
-        <v>321069.03</v>
+        <v>627045.92</v>
       </c>
       <c r="F9">
-        <v>641674.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>551353.8100000001</v>
+      </c>
+      <c r="G9">
+        <v>510615.64</v>
+      </c>
+      <c r="H9">
+        <v>850701.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>162842.35</v>
+        <v>107828.15</v>
       </c>
       <c r="C10">
-        <v>257630.49</v>
+        <v>175841.69</v>
       </c>
       <c r="D10">
-        <v>382451.11</v>
+        <v>285208.92</v>
       </c>
       <c r="E10">
-        <v>328423.82</v>
+        <v>620390.4</v>
       </c>
       <c r="F10">
-        <v>533198.79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>617174.95</v>
+      </c>
+      <c r="G10">
+        <v>510107.45</v>
+      </c>
+      <c r="H10">
+        <v>716637.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>145381.99</v>
+        <v>99858.92999999999</v>
       </c>
       <c r="C11">
-        <v>238298.24</v>
+        <v>299112.23</v>
       </c>
       <c r="D11">
-        <v>498231.44</v>
+        <v>268079.69</v>
       </c>
       <c r="E11">
-        <v>361050.03</v>
+        <v>577095.91</v>
       </c>
       <c r="F11">
-        <v>656078.9300000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>828838.14</v>
+      </c>
+      <c r="G11">
+        <v>612264.49</v>
+      </c>
+      <c r="H11">
+        <v>1064675.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>154726.47</v>
+        <v>105543.5</v>
       </c>
       <c r="C12">
-        <v>250173.41</v>
+        <v>259819.03</v>
       </c>
       <c r="D12">
-        <v>339716.04</v>
+        <v>272246.01</v>
       </c>
       <c r="E12">
-        <v>332317.16</v>
+        <v>731062.09</v>
       </c>
       <c r="F12">
-        <v>624912.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>736765.16</v>
+      </c>
+      <c r="G12">
+        <v>490239.54</v>
+      </c>
+      <c r="H12">
+        <v>1031789.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>184759.74</v>
+        <v>130615</v>
       </c>
       <c r="C13">
-        <v>240759.95</v>
+        <v>321287.28</v>
       </c>
       <c r="D13">
-        <v>380640.35</v>
+        <v>331309.5</v>
       </c>
       <c r="E13">
-        <v>486401.04</v>
+        <v>532112.76</v>
       </c>
       <c r="F13">
-        <v>833820.88</v>
+        <v>1042718.34</v>
+      </c>
+      <c r="G13">
+        <v>674121.83</v>
+      </c>
+      <c r="H13">
+        <v>1264588.39</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -510,7 +510,7 @@
         <v>553985.89</v>
       </c>
       <c r="I5">
-        <v>449688.27</v>
+        <v>586552.73</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -510,7 +510,7 @@
         <v>553985.89</v>
       </c>
       <c r="I5">
-        <v>586552.73</v>
+        <v>610425.76</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -414,25 +414,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>70181.03999999999</v>
+        <v>68977.03999999999</v>
       </c>
       <c r="D2">
-        <v>273853.03</v>
+        <v>243459.36</v>
       </c>
       <c r="E2">
-        <v>505264.48</v>
+        <v>353395.61</v>
       </c>
       <c r="F2">
-        <v>444724.53</v>
+        <v>362289.33</v>
       </c>
       <c r="G2">
-        <v>528679.0699999999</v>
+        <v>416610.57</v>
       </c>
       <c r="H2">
-        <v>454942.61</v>
+        <v>369665.08</v>
       </c>
       <c r="I2">
-        <v>1077628.61</v>
+        <v>587582.36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -440,25 +440,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>55926.21</v>
+        <v>54846.21</v>
       </c>
       <c r="D3">
-        <v>224777.98</v>
+        <v>203458.99</v>
       </c>
       <c r="E3">
-        <v>308589.64</v>
+        <v>250171.15</v>
       </c>
       <c r="F3">
-        <v>423121.33</v>
+        <v>338247.04</v>
       </c>
       <c r="G3">
-        <v>557000.89</v>
+        <v>368853.4</v>
       </c>
       <c r="H3">
-        <v>486371.27</v>
+        <v>322821.24</v>
       </c>
       <c r="I3">
-        <v>941184.13</v>
+        <v>763210.77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -466,25 +466,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>58748</v>
+        <v>54958</v>
       </c>
       <c r="D4">
-        <v>230762.37</v>
+        <v>185876.61</v>
       </c>
       <c r="E4">
-        <v>471550.93</v>
+        <v>346618.91</v>
       </c>
       <c r="F4">
-        <v>461440.4</v>
+        <v>374906.45</v>
       </c>
       <c r="G4">
-        <v>661369.1800000001</v>
+        <v>402375.47</v>
       </c>
       <c r="H4">
-        <v>570778.23</v>
+        <v>394663.49</v>
       </c>
       <c r="I4">
-        <v>796983.15</v>
+        <v>670620.61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -492,25 +492,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>69525</v>
+        <v>62793</v>
       </c>
       <c r="D5">
-        <v>231723.38</v>
+        <v>176355.8</v>
       </c>
       <c r="E5">
-        <v>414500.83</v>
+        <v>314021.11</v>
       </c>
       <c r="F5">
-        <v>528483.5699999999</v>
+        <v>381633.47</v>
       </c>
       <c r="G5">
-        <v>592203.52</v>
+        <v>336910.07</v>
       </c>
       <c r="H5">
-        <v>553985.89</v>
+        <v>450719.69</v>
       </c>
       <c r="I5">
-        <v>610425.76</v>
+        <v>511614.46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -518,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>58295.7</v>
+        <v>56618.7</v>
       </c>
       <c r="D6">
-        <v>298073.29</v>
+        <v>227009.89</v>
       </c>
       <c r="E6">
-        <v>457351.79</v>
+        <v>361191.04</v>
       </c>
       <c r="F6">
-        <v>597756.95</v>
+        <v>398659.35</v>
       </c>
       <c r="G6">
-        <v>684242.49</v>
+        <v>371532.61</v>
       </c>
       <c r="H6">
-        <v>855536.36</v>
+        <v>513540.06</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -541,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>75018.60000000001</v>
+        <v>73560.60000000001</v>
       </c>
       <c r="D7">
-        <v>283819.25</v>
+        <v>231451.45</v>
       </c>
       <c r="E7">
-        <v>504810.11</v>
+        <v>405516</v>
       </c>
       <c r="F7">
-        <v>520962.54</v>
+        <v>372513.52</v>
       </c>
       <c r="G7">
-        <v>497416.03</v>
+        <v>345008.16</v>
       </c>
       <c r="H7">
-        <v>625142.05</v>
+        <v>510962.61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -564,25 +564,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>75489.75</v>
+        <v>74343.75</v>
       </c>
       <c r="C8">
-        <v>102664.2</v>
+        <v>98652.3</v>
       </c>
       <c r="D8">
-        <v>291646.71</v>
+        <v>262869.11</v>
       </c>
       <c r="E8">
-        <v>814721.26</v>
+        <v>543603.28</v>
       </c>
       <c r="F8">
-        <v>607227.3199999999</v>
+        <v>362600.57</v>
       </c>
       <c r="G8">
-        <v>614574.4399999999</v>
+        <v>391131.85</v>
       </c>
       <c r="H8">
-        <v>950349.51</v>
+        <v>647783.67</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -590,25 +590,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>180862</v>
+        <v>106882</v>
       </c>
       <c r="C9">
-        <v>195298.1</v>
+        <v>178007.6</v>
       </c>
       <c r="D9">
-        <v>322356.9</v>
+        <v>299331.4</v>
       </c>
       <c r="E9">
-        <v>627045.92</v>
+        <v>449321.75</v>
       </c>
       <c r="F9">
-        <v>551353.8100000001</v>
+        <v>360070.83</v>
       </c>
       <c r="G9">
-        <v>510615.64</v>
+        <v>324052.02</v>
       </c>
       <c r="H9">
-        <v>850701.4</v>
+        <v>641898.98</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -616,25 +616,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>107828.15</v>
+        <v>82944.5</v>
       </c>
       <c r="C10">
-        <v>175841.69</v>
+        <v>158716.89</v>
       </c>
       <c r="D10">
-        <v>285208.92</v>
+        <v>253588.89</v>
       </c>
       <c r="E10">
-        <v>620390.4</v>
+        <v>458913.37</v>
       </c>
       <c r="F10">
-        <v>617174.95</v>
+        <v>507156.61</v>
       </c>
       <c r="G10">
-        <v>510107.45</v>
+        <v>331199.82</v>
       </c>
       <c r="H10">
-        <v>716637.28</v>
+        <v>535002.39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -642,25 +642,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>99858.92999999999</v>
+        <v>79805.75</v>
       </c>
       <c r="C11">
-        <v>299112.23</v>
+        <v>274966.43</v>
       </c>
       <c r="D11">
-        <v>268079.69</v>
+        <v>219105.59</v>
       </c>
       <c r="E11">
-        <v>577095.91</v>
+        <v>418903.43</v>
       </c>
       <c r="F11">
-        <v>828838.14</v>
+        <v>638193.91</v>
       </c>
       <c r="G11">
-        <v>612264.49</v>
+        <v>361330.03</v>
       </c>
       <c r="H11">
-        <v>1064675.22</v>
+        <v>656485.46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -668,25 +668,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>105543.5</v>
+        <v>92135.5</v>
       </c>
       <c r="C12">
-        <v>259819.03</v>
+        <v>225669.34</v>
       </c>
       <c r="D12">
-        <v>272246.01</v>
+        <v>225582.21</v>
       </c>
       <c r="E12">
-        <v>731062.09</v>
+        <v>518320.37</v>
       </c>
       <c r="F12">
-        <v>736765.16</v>
+        <v>487930.04</v>
       </c>
       <c r="G12">
-        <v>490239.54</v>
+        <v>333870.96</v>
       </c>
       <c r="H12">
-        <v>1031789.3</v>
+        <v>628940.73</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -694,25 +694,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>130615</v>
+        <v>125828</v>
       </c>
       <c r="C13">
-        <v>321287.28</v>
+        <v>278306.18</v>
       </c>
       <c r="D13">
-        <v>331309.5</v>
+        <v>260876.34</v>
       </c>
       <c r="E13">
-        <v>532112.76</v>
+        <v>430138.51</v>
       </c>
       <c r="F13">
-        <v>1042718.34</v>
+        <v>540802.79</v>
       </c>
       <c r="G13">
-        <v>674121.83</v>
+        <v>487200.04</v>
       </c>
       <c r="H13">
-        <v>1264588.39</v>
+        <v>830722.87</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -510,7 +510,7 @@
         <v>450719.69</v>
       </c>
       <c r="I5">
-        <v>511614.46</v>
+        <v>542672.73</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -510,7 +510,7 @@
         <v>450719.69</v>
       </c>
       <c r="I5">
-        <v>542672.73</v>
+        <v>567446.61</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -534,6 +534,9 @@
       </c>
       <c r="H6">
         <v>513540.06</v>
+      </c>
+      <c r="I6">
+        <v>126606.56</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>126606.56</v>
+        <v>246316.71</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>246316.71</v>
+        <v>277562.15</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>277562.15</v>
+        <v>304001.01</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>304001.01</v>
+        <v>340410.19</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>340410.19</v>
+        <v>427866.55</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>427866.55</v>
+        <v>455472.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>455472.22</v>
+        <v>513249.18</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>513249.18</v>
+        <v>541703.97</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>541703.97</v>
+        <v>602133.88</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>602133.88</v>
+        <v>631665.65</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>631665.65</v>
+        <v>655821.96</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>655821.96</v>
+        <v>677441.59</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>677441.59</v>
+        <v>697424.34</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>697424.34</v>
+        <v>742050.36</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -560,6 +560,9 @@
       </c>
       <c r="H7">
         <v>510962.61</v>
+      </c>
+      <c r="I7">
+        <v>5140.01</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -536,7 +536,7 @@
         <v>513540.06</v>
       </c>
       <c r="I6">
-        <v>742050.36</v>
+        <v>743703.36</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>5140.01</v>
+        <v>32792.81</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>32792.81</v>
+        <v>58029.56</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>58029.56</v>
+        <v>93547.02</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>93547.02</v>
+        <v>115952.37</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>115952.37</v>
+        <v>150521.68</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>150521.68</v>
+        <v>155464.58</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>155464.58</v>
+        <v>179321.45</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>179321.45</v>
+        <v>210576.45</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>210576.45</v>
+        <v>243695.81</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>243695.81</v>
+        <v>282539.44</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>282539.44</v>
+        <v>304654.73</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>304654.73</v>
+        <v>337150.55</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>337150.55</v>
+        <v>365664.95</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>365664.95</v>
+        <v>383763.74</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>383763.74</v>
+        <v>427958.89</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>427958.89</v>
+        <v>463102.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>463102.25</v>
+        <v>488285.51</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>488285.51</v>
+        <v>510888.33</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>510888.33</v>
+        <v>531068.79</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>531068.79</v>
+        <v>569728.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>569728.1</v>
+        <v>609967.12</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -562,7 +562,7 @@
         <v>510962.61</v>
       </c>
       <c r="I7">
-        <v>609967.12</v>
+        <v>634296.24</v>
       </c>
     </row>
     <row r="8" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -590,6 +590,9 @@
       <c r="H8">
         <v>647783.67</v>
       </c>
+      <c r="I8">
+        <v>17229.16</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>17229.16</v>
+        <v>38198.81</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>38198.81</v>
+        <v>61766.14</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>61766.14</v>
+        <v>107928.78</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>107928.78</v>
+        <v>127846.45</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>127846.45</v>
+        <v>147422.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>147422.26</v>
+        <v>165736.23</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>165736.23</v>
+        <v>187002.23</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>187002.23</v>
+        <v>225436.25</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>225436.25</v>
+        <v>246714.66</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>246714.66</v>
+        <v>278849.7</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>278849.7</v>
+        <v>309714.62</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>309714.62</v>
+        <v>327331.69</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>327331.69</v>
+        <v>369893.64</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>369893.64</v>
+        <v>397221.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>397221.26</v>
+        <v>413506.46</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>413506.46</v>
+        <v>427816.78</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>427816.78</v>
+        <v>443336.75</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>443336.75</v>
+        <v>478023.85</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>478023.85</v>
+        <v>502405.82</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>502405.82</v>
+        <v>522938.58</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>522938.58</v>
+        <v>587385.38</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -591,7 +591,7 @@
         <v>647783.67</v>
       </c>
       <c r="I8">
-        <v>587385.38</v>
+        <v>614810.04</v>
       </c>
     </row>
     <row r="9" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -619,6 +619,9 @@
       <c r="H9">
         <v>641898.98</v>
       </c>
+      <c r="I9">
+        <v>47507.3</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>47507.3</v>
+        <v>72416.32000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>72416.32000000001</v>
+        <v>93464.28999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>93464.28999999999</v>
+        <v>109998.28</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>109998.28</v>
+        <v>195173.41</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>195173.41</v>
+        <v>228015.21</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>228015.21</v>
+        <v>281564.99</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>281564.99</v>
+        <v>302798.95</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>302798.95</v>
+        <v>370600.25</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>370600.25</v>
+        <v>422304.35</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>422304.35</v>
+        <v>437851.87</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_mensal.xlsx
@@ -620,7 +620,7 @@
         <v>641898.98</v>
       </c>
       <c r="I9">
-        <v>437851.87</v>
+        <v>483494.89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
